--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link2_request1200.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link2_request1200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2794"/>
+  <dimension ref="A1:C2793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.572</v>
+        <v>19.572</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2378,7 +2378,7 @@
         <v>0.4064</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="178">
@@ -2389,7 +2389,7 @@
         <v>0.9208000000000001</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="179">
@@ -2400,7 +2400,7 @@
         <v>0.2856</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="180">
@@ -2411,7 +2411,7 @@
         <v>0.468</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="181">
@@ -2422,7 +2422,7 @@
         <v>0.232</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="182">
@@ -2433,7 +2433,7 @@
         <v>0.3648</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="183">
@@ -2444,7 +2444,7 @@
         <v>0.0184</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="184">
@@ -2455,7 +2455,7 @@
         <v>0.26</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="185">
@@ -2466,7 +2466,7 @@
         <v>0.4888</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="186">
@@ -2477,7 +2477,7 @@
         <v>0.4096</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="187">
@@ -2488,7 +2488,7 @@
         <v>0.66</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="188">
@@ -2499,7 +2499,7 @@
         <v>0.8936000000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="189">
@@ -2510,7 +2510,7 @@
         <v>0.416</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="190">
@@ -2521,7 +2521,7 @@
         <v>0.4848</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="191">
@@ -2532,7 +2532,7 @@
         <v>1.1976</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="192">
@@ -3852,7 +3852,7 @@
         <v>0.532</v>
       </c>
       <c r="C311" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="312">
@@ -3863,7 +3863,7 @@
         <v>0.376</v>
       </c>
       <c r="C312" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="313">
@@ -3874,7 +3874,7 @@
         <v>0.068</v>
       </c>
       <c r="C313" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="314">
@@ -3885,7 +3885,7 @@
         <v>1.352</v>
       </c>
       <c r="C314" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="315">
@@ -3896,7 +3896,7 @@
         <v>0.804</v>
       </c>
       <c r="C315" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="316">
@@ -3907,7 +3907,7 @@
         <v>0.504</v>
       </c>
       <c r="C316" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="317">
@@ -3918,7 +3918,7 @@
         <v>0.652</v>
       </c>
       <c r="C317" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="318">
@@ -5062,7 +5062,7 @@
         <v>0.048</v>
       </c>
       <c r="C421" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="422">
@@ -5073,7 +5073,7 @@
         <v>1.568</v>
       </c>
       <c r="C422" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="423">
@@ -5084,7 +5084,7 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="C423" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="424">
@@ -5095,7 +5095,7 @@
         <v>0.98</v>
       </c>
       <c r="C424" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="425">
@@ -5106,7 +5106,7 @@
         <v>0.232</v>
       </c>
       <c r="C425" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="426">
@@ -6030,7 +6030,7 @@
         <v>1.2</v>
       </c>
       <c r="C509" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="510">
@@ -6041,7 +6041,7 @@
         <v>7.544</v>
       </c>
       <c r="C510" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="511">
@@ -6052,7 +6052,7 @@
         <v>0.652</v>
       </c>
       <c r="C511" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="512">
@@ -6063,7 +6063,7 @@
         <v>1.772</v>
       </c>
       <c r="C512" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="513">
@@ -7647,7 +7647,7 @@
         <v>1.1224</v>
       </c>
       <c r="C656" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="657">
@@ -7658,7 +7658,7 @@
         <v>2.825600000000001</v>
       </c>
       <c r="C657" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="658">
@@ -7669,7 +7669,7 @@
         <v>0.09040000000000001</v>
       </c>
       <c r="C658" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="659">
@@ -7680,7 +7680,7 @@
         <v>1.876</v>
       </c>
       <c r="C659" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="660">
@@ -7691,7 +7691,7 @@
         <v>0.6896</v>
       </c>
       <c r="C660" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="661">
@@ -7702,7 +7702,7 @@
         <v>2.4352</v>
       </c>
       <c r="C661" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="662">
@@ -7713,7 +7713,7 @@
         <v>1.42</v>
       </c>
       <c r="C662" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="663">
@@ -7724,7 +7724,7 @@
         <v>3.1944</v>
       </c>
       <c r="C663" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="664">
@@ -8461,7 +8461,7 @@
         <v>0.2312</v>
       </c>
       <c r="C730" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="731">
@@ -8472,7 +8472,7 @@
         <v>1.2896</v>
       </c>
       <c r="C731" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="732">
@@ -8483,7 +8483,7 @@
         <v>1.4144</v>
       </c>
       <c r="C732" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="733">
@@ -8934,7 +8934,7 @@
         <v>9.5816</v>
       </c>
       <c r="C773" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="774">
@@ -8945,7 +8945,7 @@
         <v>3.924</v>
       </c>
       <c r="C774" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="775">
@@ -8956,7 +8956,7 @@
         <v>7.8856</v>
       </c>
       <c r="C775" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="776">
@@ -9217,7 +9217,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>11.4056</v>
+        <v>6.8928</v>
       </c>
       <c r="C799" t="n">
         <v>2187501</v>
@@ -9228,7 +9228,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>7.4152</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C800" t="n">
         <v>2187501</v>
@@ -9239,7 +9239,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>3.8928</v>
+        <v>7.4152</v>
       </c>
       <c r="C801" t="n">
         <v>2187501</v>
@@ -9250,7 +9250,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>22.9216</v>
+        <v>26.8896</v>
       </c>
       <c r="C802" t="n">
         <v>2187501</v>
@@ -10617,7 +10617,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C926" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="927">
@@ -10628,7 +10628,7 @@
         <v>3.9384</v>
       </c>
       <c r="C927" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="928">
@@ -10639,7 +10639,7 @@
         <v>2.8144</v>
       </c>
       <c r="C928" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="929">
@@ -10650,7 +10650,7 @@
         <v>0.6896</v>
       </c>
       <c r="C929" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="930">
@@ -10661,7 +10661,7 @@
         <v>2.4352</v>
       </c>
       <c r="C930" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="931">
@@ -10672,7 +10672,7 @@
         <v>1.42</v>
       </c>
       <c r="C931" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="932">
@@ -10683,7 +10683,7 @@
         <v>3.1944</v>
       </c>
       <c r="C932" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="933">
@@ -11266,7 +11266,7 @@
         <v>2.4168</v>
       </c>
       <c r="C985" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="986">
@@ -11277,7 +11277,7 @@
         <v>1.4144</v>
       </c>
       <c r="C986" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="987">
@@ -11684,7 +11684,7 @@
         <v>3.924</v>
       </c>
       <c r="C1023" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1024">
@@ -11695,7 +11695,7 @@
         <v>7.8856</v>
       </c>
       <c r="C1024" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1025">
@@ -11956,7 +11956,7 @@
         <v>1046</v>
       </c>
       <c r="B1048" t="n">
-        <v>11.4056</v>
+        <v>6.8928</v>
       </c>
       <c r="C1048" t="n">
         <v>3437501</v>
@@ -11967,7 +11967,7 @@
         <v>1047</v>
       </c>
       <c r="B1049" t="n">
-        <v>7.4152</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C1049" t="n">
         <v>3437501</v>
@@ -11978,7 +11978,7 @@
         <v>1048</v>
       </c>
       <c r="B1050" t="n">
-        <v>3.8928</v>
+        <v>7.4152</v>
       </c>
       <c r="C1050" t="n">
         <v>3437501</v>
@@ -11989,7 +11989,7 @@
         <v>1049</v>
       </c>
       <c r="B1051" t="n">
-        <v>22.9216</v>
+        <v>26.8896</v>
       </c>
       <c r="C1051" t="n">
         <v>3437501</v>
@@ -13356,7 +13356,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C1175" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1176">
@@ -13367,7 +13367,7 @@
         <v>3.9384</v>
       </c>
       <c r="C1176" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1177">
@@ -13378,7 +13378,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1177" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1178">
@@ -13389,7 +13389,7 @@
         <v>0.6896</v>
       </c>
       <c r="C1178" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1179">
@@ -13400,7 +13400,7 @@
         <v>2.4352</v>
       </c>
       <c r="C1179" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1180">
@@ -13411,7 +13411,7 @@
         <v>1.42</v>
       </c>
       <c r="C1180" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1181">
@@ -13422,7 +13422,7 @@
         <v>3.1944</v>
       </c>
       <c r="C1181" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1182">
@@ -14005,7 +14005,7 @@
         <v>2.4168</v>
       </c>
       <c r="C1234" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1235">
@@ -14016,7 +14016,7 @@
         <v>1.4144</v>
       </c>
       <c r="C1235" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1236">
@@ -14423,7 +14423,7 @@
         <v>3.924</v>
       </c>
       <c r="C1272" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1273">
@@ -14434,7 +14434,7 @@
         <v>7.8856</v>
       </c>
       <c r="C1273" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1274">
@@ -14695,7 +14695,7 @@
         <v>1295</v>
       </c>
       <c r="B1297" t="n">
-        <v>11.4056</v>
+        <v>6.8928</v>
       </c>
       <c r="C1297" t="n">
         <v>4687501</v>
@@ -14706,7 +14706,7 @@
         <v>1296</v>
       </c>
       <c r="B1298" t="n">
-        <v>7.4152</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C1298" t="n">
         <v>4687501</v>
@@ -14717,7 +14717,7 @@
         <v>1297</v>
       </c>
       <c r="B1299" t="n">
-        <v>3.8928</v>
+        <v>7.4152</v>
       </c>
       <c r="C1299" t="n">
         <v>4687501</v>
@@ -14728,7 +14728,7 @@
         <v>1298</v>
       </c>
       <c r="B1300" t="n">
-        <v>22.9216</v>
+        <v>26.8896</v>
       </c>
       <c r="C1300" t="n">
         <v>4687501</v>
@@ -16095,7 +16095,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C1424" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1425">
@@ -16106,7 +16106,7 @@
         <v>3.9384</v>
       </c>
       <c r="C1425" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1426">
@@ -16117,7 +16117,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1426" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1427">
@@ -16128,7 +16128,7 @@
         <v>0.6896</v>
       </c>
       <c r="C1427" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1428">
@@ -16139,7 +16139,7 @@
         <v>2.4352</v>
       </c>
       <c r="C1428" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1429">
@@ -16150,7 +16150,7 @@
         <v>1.42</v>
       </c>
       <c r="C1429" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1430">
@@ -16161,7 +16161,7 @@
         <v>3.1944</v>
       </c>
       <c r="C1430" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1431">
@@ -16744,7 +16744,7 @@
         <v>2.4168</v>
       </c>
       <c r="C1483" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1484">
@@ -16755,7 +16755,7 @@
         <v>1.4144</v>
       </c>
       <c r="C1484" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1485">
@@ -17162,7 +17162,7 @@
         <v>3.924</v>
       </c>
       <c r="C1521" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1522">
@@ -17173,7 +17173,7 @@
         <v>7.8856</v>
       </c>
       <c r="C1522" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1523">
@@ -17434,7 +17434,7 @@
         <v>1544</v>
       </c>
       <c r="B1546" t="n">
-        <v>11.4056</v>
+        <v>6.8928</v>
       </c>
       <c r="C1546" t="n">
         <v>5937501</v>
@@ -17445,7 +17445,7 @@
         <v>1545</v>
       </c>
       <c r="B1547" t="n">
-        <v>7.4152</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C1547" t="n">
         <v>5937501</v>
@@ -17456,7 +17456,7 @@
         <v>1546</v>
       </c>
       <c r="B1548" t="n">
-        <v>3.8928</v>
+        <v>7.4152</v>
       </c>
       <c r="C1548" t="n">
         <v>5937501</v>
@@ -17467,7 +17467,7 @@
         <v>1547</v>
       </c>
       <c r="B1549" t="n">
-        <v>22.9216</v>
+        <v>26.8896</v>
       </c>
       <c r="C1549" t="n">
         <v>5937501</v>
@@ -18834,7 +18834,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C1673" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1674">
@@ -18845,7 +18845,7 @@
         <v>3.9384</v>
       </c>
       <c r="C1674" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1675">
@@ -18856,7 +18856,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1675" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1676">
@@ -18867,7 +18867,7 @@
         <v>0.6896</v>
       </c>
       <c r="C1676" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1677">
@@ -18878,7 +18878,7 @@
         <v>2.4352</v>
       </c>
       <c r="C1677" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1678">
@@ -18889,7 +18889,7 @@
         <v>1.42</v>
       </c>
       <c r="C1678" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1679">
@@ -18900,7 +18900,7 @@
         <v>3.1944</v>
       </c>
       <c r="C1679" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1680">
@@ -19483,7 +19483,7 @@
         <v>2.4168</v>
       </c>
       <c r="C1732" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1733">
@@ -19494,7 +19494,7 @@
         <v>1.4144</v>
       </c>
       <c r="C1733" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1734">
@@ -19901,7 +19901,7 @@
         <v>3.924</v>
       </c>
       <c r="C1770" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1771">
@@ -19912,7 +19912,7 @@
         <v>7.8856</v>
       </c>
       <c r="C1771" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1772">
@@ -20173,7 +20173,7 @@
         <v>1793</v>
       </c>
       <c r="B1795" t="n">
-        <v>11.4056</v>
+        <v>6.8928</v>
       </c>
       <c r="C1795" t="n">
         <v>7187501</v>
@@ -20184,7 +20184,7 @@
         <v>1794</v>
       </c>
       <c r="B1796" t="n">
-        <v>7.4152</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C1796" t="n">
         <v>7187501</v>
@@ -20195,7 +20195,7 @@
         <v>1795</v>
       </c>
       <c r="B1797" t="n">
-        <v>3.8928</v>
+        <v>7.4152</v>
       </c>
       <c r="C1797" t="n">
         <v>7187501</v>
@@ -20206,7 +20206,7 @@
         <v>1796</v>
       </c>
       <c r="B1798" t="n">
-        <v>22.9216</v>
+        <v>26.8896</v>
       </c>
       <c r="C1798" t="n">
         <v>7187501</v>
@@ -21573,7 +21573,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C1922" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1923">
@@ -21584,7 +21584,7 @@
         <v>3.9384</v>
       </c>
       <c r="C1923" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1924">
@@ -21595,7 +21595,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1924" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1925">
@@ -21606,7 +21606,7 @@
         <v>0.6896</v>
       </c>
       <c r="C1925" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1926">
@@ -21617,7 +21617,7 @@
         <v>2.4352</v>
       </c>
       <c r="C1926" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1927">
@@ -21628,7 +21628,7 @@
         <v>1.42</v>
       </c>
       <c r="C1927" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1928">
@@ -21639,7 +21639,7 @@
         <v>3.1944</v>
       </c>
       <c r="C1928" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1929">
@@ -22222,7 +22222,7 @@
         <v>2.4168</v>
       </c>
       <c r="C1981" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1982">
@@ -22233,7 +22233,7 @@
         <v>1.4144</v>
       </c>
       <c r="C1982" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1983">
@@ -22640,7 +22640,7 @@
         <v>3.924</v>
       </c>
       <c r="C2019" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2020">
@@ -22651,7 +22651,7 @@
         <v>7.8856</v>
       </c>
       <c r="C2020" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2021">
@@ -22912,7 +22912,7 @@
         <v>2042</v>
       </c>
       <c r="B2044" t="n">
-        <v>11.4056</v>
+        <v>6.8928</v>
       </c>
       <c r="C2044" t="n">
         <v>8437501</v>
@@ -22923,7 +22923,7 @@
         <v>2043</v>
       </c>
       <c r="B2045" t="n">
-        <v>7.4152</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C2045" t="n">
         <v>8437501</v>
@@ -22934,7 +22934,7 @@
         <v>2044</v>
       </c>
       <c r="B2046" t="n">
-        <v>3.8928</v>
+        <v>7.4152</v>
       </c>
       <c r="C2046" t="n">
         <v>8437501</v>
@@ -22945,7 +22945,7 @@
         <v>2045</v>
       </c>
       <c r="B2047" t="n">
-        <v>22.9216</v>
+        <v>26.8896</v>
       </c>
       <c r="C2047" t="n">
         <v>8437501</v>
@@ -24312,7 +24312,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C2171" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2172">
@@ -24323,7 +24323,7 @@
         <v>3.9384</v>
       </c>
       <c r="C2172" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2173">
@@ -24334,7 +24334,7 @@
         <v>2.8144</v>
       </c>
       <c r="C2173" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2174">
@@ -24345,7 +24345,7 @@
         <v>0.6896</v>
       </c>
       <c r="C2174" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2175">
@@ -24356,7 +24356,7 @@
         <v>2.4352</v>
       </c>
       <c r="C2175" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2176">
@@ -24367,7 +24367,7 @@
         <v>1.42</v>
       </c>
       <c r="C2176" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2177">
@@ -24378,7 +24378,7 @@
         <v>3.1944</v>
       </c>
       <c r="C2177" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2178">
@@ -24961,7 +24961,7 @@
         <v>2.4168</v>
       </c>
       <c r="C2230" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2231">
@@ -24972,7 +24972,7 @@
         <v>1.4144</v>
       </c>
       <c r="C2231" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2232">
@@ -25379,7 +25379,7 @@
         <v>3.924</v>
       </c>
       <c r="C2268" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2269">
@@ -25390,7 +25390,7 @@
         <v>7.8856</v>
       </c>
       <c r="C2269" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2270">
@@ -25651,7 +25651,7 @@
         <v>2291</v>
       </c>
       <c r="B2293" t="n">
-        <v>11.4056</v>
+        <v>6.8928</v>
       </c>
       <c r="C2293" t="n">
         <v>9687501</v>
@@ -25662,7 +25662,7 @@
         <v>2292</v>
       </c>
       <c r="B2294" t="n">
-        <v>7.4152</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C2294" t="n">
         <v>9687501</v>
@@ -25673,7 +25673,7 @@
         <v>2293</v>
       </c>
       <c r="B2295" t="n">
-        <v>3.8928</v>
+        <v>7.4152</v>
       </c>
       <c r="C2295" t="n">
         <v>9687501</v>
@@ -25684,7 +25684,7 @@
         <v>2294</v>
       </c>
       <c r="B2296" t="n">
-        <v>22.9216</v>
+        <v>26.8896</v>
       </c>
       <c r="C2296" t="n">
         <v>9687501</v>
@@ -27051,7 +27051,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C2420" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2421">
@@ -27062,7 +27062,7 @@
         <v>3.9384</v>
       </c>
       <c r="C2421" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2422">
@@ -27073,7 +27073,7 @@
         <v>2.8144</v>
       </c>
       <c r="C2422" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2423">
@@ -27084,7 +27084,7 @@
         <v>0.6896</v>
       </c>
       <c r="C2423" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2424">
@@ -27095,7 +27095,7 @@
         <v>2.4352</v>
       </c>
       <c r="C2424" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2425">
@@ -27106,7 +27106,7 @@
         <v>1.42</v>
       </c>
       <c r="C2425" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2426">
@@ -27117,7 +27117,7 @@
         <v>3.1944</v>
       </c>
       <c r="C2426" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2427">
@@ -27700,7 +27700,7 @@
         <v>2.4168</v>
       </c>
       <c r="C2479" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2480">
@@ -27711,7 +27711,7 @@
         <v>1.4144</v>
       </c>
       <c r="C2480" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2481">
@@ -28118,7 +28118,7 @@
         <v>3.924</v>
       </c>
       <c r="C2517" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="2518">
@@ -28129,7 +28129,7 @@
         <v>7.8856</v>
       </c>
       <c r="C2518" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="2519">
@@ -28390,7 +28390,7 @@
         <v>2540</v>
       </c>
       <c r="B2542" t="n">
-        <v>11.4056</v>
+        <v>6.8928</v>
       </c>
       <c r="C2542" t="n">
         <v>10937501</v>
@@ -28401,7 +28401,7 @@
         <v>2541</v>
       </c>
       <c r="B2543" t="n">
-        <v>7.4152</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C2543" t="n">
         <v>10937501</v>
@@ -28412,7 +28412,7 @@
         <v>2542</v>
       </c>
       <c r="B2544" t="n">
-        <v>3.8928</v>
+        <v>7.4152</v>
       </c>
       <c r="C2544" t="n">
         <v>10937501</v>
@@ -28423,7 +28423,7 @@
         <v>2543</v>
       </c>
       <c r="B2545" t="n">
-        <v>22.9216</v>
+        <v>26.8896</v>
       </c>
       <c r="C2545" t="n">
         <v>10937501</v>
@@ -29790,7 +29790,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C2669" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2670">
@@ -29801,7 +29801,7 @@
         <v>3.9384</v>
       </c>
       <c r="C2670" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2671">
@@ -29812,7 +29812,7 @@
         <v>2.8144</v>
       </c>
       <c r="C2671" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2672">
@@ -29823,7 +29823,7 @@
         <v>0.6896</v>
       </c>
       <c r="C2672" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2673">
@@ -29834,7 +29834,7 @@
         <v>2.4352</v>
       </c>
       <c r="C2673" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2674">
@@ -29845,7 +29845,7 @@
         <v>1.42</v>
       </c>
       <c r="C2674" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2675">
@@ -29856,7 +29856,7 @@
         <v>3.1944</v>
       </c>
       <c r="C2675" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2676">
@@ -30439,7 +30439,7 @@
         <v>2.4168</v>
       </c>
       <c r="C2728" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2729">
@@ -30450,7 +30450,7 @@
         <v>1.4144</v>
       </c>
       <c r="C2729" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2730">
@@ -30857,7 +30857,7 @@
         <v>3.924</v>
       </c>
       <c r="C2766" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="2767">
@@ -30868,7 +30868,7 @@
         <v>7.8856</v>
       </c>
       <c r="C2767" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="2768">
@@ -31118,7 +31118,7 @@
         <v>2788</v>
       </c>
       <c r="B2790" t="n">
-        <v>24.9392</v>
+        <v>17.936</v>
       </c>
       <c r="C2790" t="n">
         <v>12187501</v>
@@ -31129,7 +31129,7 @@
         <v>2789</v>
       </c>
       <c r="B2791" t="n">
-        <v>11.4056</v>
+        <v>6.9152</v>
       </c>
       <c r="C2791" t="n">
         <v>12187501</v>
@@ -31140,7 +31140,7 @@
         <v>2790</v>
       </c>
       <c r="B2792" t="n">
-        <v>7.4152</v>
+        <v>6.801600000000001</v>
       </c>
       <c r="C2792" t="n">
         <v>12187501</v>
@@ -31151,20 +31151,9 @@
         <v>2791</v>
       </c>
       <c r="B2793" t="n">
-        <v>3.8928</v>
+        <v>19.3496</v>
       </c>
       <c r="C2793" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="2794">
-      <c r="A2794" s="1" t="n">
-        <v>2792</v>
-      </c>
-      <c r="B2794" t="n">
-        <v>19.3496</v>
-      </c>
-      <c r="C2794" t="n">
         <v>12187501</v>
       </c>
     </row>
